--- a/vgp_database/Monterey_intrusions.xlsx
+++ b/vgp_database/Monterey_intrusions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="78">
   <si>
     <t>Name:</t>
   </si>
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -225,6 +225,9 @@
     <t>felsite dike</t>
   </si>
   <si>
+    <t>slat/slon estimated from dec/inc and reported vgp</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -307,7 +310,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,9 +335,29 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4285F4"/>
+        <bgColor rgb="FF4285F4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -349,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -377,7 +400,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -445,59 +468,65 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -512,6 +541,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +773,7 @@
     <col customWidth="1" min="16" max="16" width="7.29"/>
     <col customWidth="1" min="17" max="17" width="10.0"/>
     <col customWidth="1" min="18" max="23" width="10.71"/>
-    <col customWidth="1" min="24" max="24" width="14.71"/>
+    <col customWidth="1" min="24" max="24" width="15.43"/>
     <col customWidth="1" min="25" max="25" width="14.29"/>
     <col customWidth="1" min="26" max="26" width="13.57"/>
     <col customWidth="1" min="27" max="29" width="10.71"/>
@@ -1377,7 +1412,7 @@
       <c r="AK9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL9" s="9" t="s">
+      <c r="AL9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="AM9" s="3"/>
@@ -1390,11 +1425,15 @@
       <c r="A10" s="14">
         <v>1.0</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="35">
+        <v>38.2761902019473</v>
+      </c>
+      <c r="D10" s="35">
+        <v>281.1221522813717</v>
+      </c>
       <c r="E10" s="14">
         <v>5.0</v>
       </c>
@@ -1467,24 +1506,30 @@
       <c r="AJ10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="34"/>
+      <c r="AK10" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="14">
         <v>2.0</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="35">
+        <v>38.14655</v>
+      </c>
+      <c r="D11" s="35">
+        <v>281.010513</v>
+      </c>
       <c r="E11" s="14">
         <v>2.0</v>
       </c>
@@ -1502,7 +1547,7 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="14">
-        <v>78.6</v>
+        <v>-78.6</v>
       </c>
       <c r="L11" s="14">
         <v>240.8</v>
@@ -1540,7 +1585,7 @@
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD11" s="14">
         <v>0.0</v>
@@ -1557,24 +1602,30 @@
       <c r="AJ11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="34"/>
+      <c r="AK11" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
     </row>
     <row r="12">
       <c r="A12" s="14">
         <v>3.0</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="35">
+        <v>38.205653</v>
+      </c>
+      <c r="D12" s="35">
+        <v>280.769751</v>
+      </c>
       <c r="E12" s="14">
         <v>7.0</v>
       </c>
@@ -1592,7 +1643,7 @@
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="14">
-        <v>82.3</v>
+        <v>-82.3</v>
       </c>
       <c r="L12" s="14">
         <v>301.7</v>
@@ -1630,7 +1681,7 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD12" s="14">
         <v>0.0</v>
@@ -1647,24 +1698,30 @@
       <c r="AJ12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="34"/>
+      <c r="AK12" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
     </row>
     <row r="13">
       <c r="A13" s="14">
         <v>6.0</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="35">
+        <v>38.2330413715152</v>
+      </c>
+      <c r="D13" s="35">
+        <v>280.7710298499356</v>
+      </c>
       <c r="E13" s="14">
         <v>11.0</v>
       </c>
@@ -1737,24 +1794,30 @@
       <c r="AJ13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK13" s="34"/>
+      <c r="AK13" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="14">
         <v>7.0</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="35">
+        <v>38.551065</v>
+      </c>
+      <c r="D14" s="35">
+        <v>279.971895</v>
+      </c>
       <c r="E14" s="14">
         <v>6.0</v>
       </c>
@@ -1772,7 +1835,7 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="14">
-        <v>65.3</v>
+        <v>-65.3</v>
       </c>
       <c r="L14" s="14">
         <v>201.2</v>
@@ -1804,13 +1867,13 @@
         <v>44</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD14" s="14">
         <v>0.0</v>
@@ -1827,24 +1890,30 @@
       <c r="AJ14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="34"/>
+      <c r="AK14" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="14">
         <v>8.0</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="37">
+        <v>37.962007</v>
+      </c>
+      <c r="D15" s="37">
+        <v>278.649588</v>
+      </c>
       <c r="E15" s="14">
         <v>5.0</v>
       </c>
@@ -1862,7 +1931,7 @@
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="14">
-        <v>82.9</v>
+        <v>-82.9</v>
       </c>
       <c r="L15" s="14">
         <v>18.0</v>
@@ -1887,20 +1956,20 @@
       <c r="V15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="W15" s="35" t="s">
+      <c r="W15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="X15" s="35" t="s">
+      <c r="X15" s="38" t="s">
         <v>44</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD15" s="14">
         <v>0.0</v>
@@ -1910,71 +1979,73 @@
       <c r="AG15" s="14">
         <v>1.0</v>
       </c>
-      <c r="AH15" s="36"/>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="AJ15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK15" s="34"/>
+      <c r="AK15" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="AL15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="34"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16">
-      <c r="A16" s="38">
+      <c r="A16" s="41">
         <v>1.0</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40">
-        <v>38.4</v>
-      </c>
-      <c r="D16" s="40">
-        <v>280.6</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="C16" s="35">
+        <v>38.4333333</v>
+      </c>
+      <c r="D16" s="35">
+        <v>280.4</v>
+      </c>
+      <c r="E16" s="41">
         <v>9.0</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="41">
         <v>203.1</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="41">
         <v>-61.9</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="43">
         <v>199.9</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="41">
         <v>3.6</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45">
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47">
         <v>47.0</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="48">
         <v>0.2</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="47">
         <v>47.9</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="48">
         <v>0.2</v>
       </c>
-      <c r="V16" s="45" t="s">
+      <c r="V16" s="47" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="19" t="s">
@@ -1983,35 +2054,35 @@
       <c r="X16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="47" t="s">
-        <v>70</v>
+      <c r="Y16" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD16" s="45">
+      <c r="AC16" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="47">
         <v>0.0</v>
       </c>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="47">
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="49">
         <v>2.0</v>
       </c>
       <c r="AH16" s="13"/>
-      <c r="AI16" s="49" t="s">
+      <c r="AI16" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AJ16" s="49" t="s">
+      <c r="AJ16" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AK16" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL16" s="51" t="s">
+      <c r="AK16" s="52" t="s">
         <v>72</v>
+      </c>
+      <c r="AL16" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
@@ -2019,31 +2090,31 @@
       <c r="AQ16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>2.0</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D17" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E17" s="52">
+      <c r="C17" s="35">
+        <v>38.45</v>
+      </c>
+      <c r="D17" s="35">
+        <v>280.7166667</v>
+      </c>
+      <c r="E17" s="54">
         <v>5.0</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="54">
         <v>214.8</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="54">
         <v>-62.7</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="55">
         <v>24.5</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="54">
         <v>15.8</v>
       </c>
       <c r="J17" s="13"/>
@@ -2052,7 +2123,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="54"/>
+      <c r="P17" s="56"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="17">
         <v>47.0</v>
@@ -2076,13 +2147,13 @@
         <v>44</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD17" s="17">
         <v>0.0</v>
@@ -2099,8 +2170,8 @@
       <c r="AJ17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK17" s="55" t="s">
-        <v>71</v>
+      <c r="AK17" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL17" s="25" t="s">
         <v>49</v>
@@ -2111,31 +2182,31 @@
       <c r="AQ17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="52">
+      <c r="A18" s="54">
         <v>3.0</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D18" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="C18" s="35">
+        <v>38.4083333</v>
+      </c>
+      <c r="D18" s="35">
+        <v>280.4</v>
+      </c>
+      <c r="E18" s="54">
         <v>12.0</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="54">
         <v>181.9</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="54">
         <v>-77.1</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="55">
         <v>129.8</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="54">
         <v>3.8</v>
       </c>
       <c r="J18" s="13"/>
@@ -2144,7 +2215,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="54"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="17">
         <v>47.0</v>
@@ -2168,13 +2239,13 @@
         <v>44</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD18" s="17">
         <v>0.0</v>
@@ -2191,8 +2262,8 @@
       <c r="AJ18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK18" s="55" t="s">
-        <v>71</v>
+      <c r="AK18" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL18" s="25" t="s">
         <v>49</v>
@@ -2203,31 +2274,31 @@
       <c r="AQ18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="52">
+      <c r="A19" s="54">
         <v>4.0</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D19" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E19" s="52">
+      <c r="C19" s="35">
+        <v>38.45</v>
+      </c>
+      <c r="D19" s="35">
+        <v>280.7166667</v>
+      </c>
+      <c r="E19" s="54">
         <v>7.0</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="54">
         <v>173.5</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="54">
         <v>-70.3</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="55">
         <v>99.5</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="54">
         <v>6.0</v>
       </c>
       <c r="J19" s="13"/>
@@ -2236,7 +2307,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="54"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="17">
         <v>47.0</v>
@@ -2260,13 +2331,13 @@
         <v>44</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD19" s="17">
         <v>0.0</v>
@@ -2283,11 +2354,11 @@
       <c r="AJ19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK19" s="55" t="s">
-        <v>71</v>
+      <c r="AK19" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL19" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
@@ -2295,31 +2366,31 @@
       <c r="AQ19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="52">
+      <c r="A20" s="54">
         <v>5.0</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D20" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E20" s="52">
+      <c r="C20" s="35">
+        <v>38.4666667</v>
+      </c>
+      <c r="D20" s="35">
+        <v>280.7</v>
+      </c>
+      <c r="E20" s="54">
         <v>12.0</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="54">
         <v>179.5</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="54">
         <v>-59.3</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="55">
         <v>10.7</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="54">
         <v>13.8</v>
       </c>
       <c r="J20" s="13"/>
@@ -2328,7 +2399,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="54"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="17">
         <v>47.0</v>
@@ -2352,13 +2423,13 @@
         <v>44</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD20" s="17">
         <v>0.0</v>
@@ -2375,8 +2446,8 @@
       <c r="AJ20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="55" t="s">
-        <v>71</v>
+      <c r="AK20" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL20" s="25" t="s">
         <v>49</v>
@@ -2387,31 +2458,31 @@
       <c r="AQ20" s="17"/>
     </row>
     <row r="21">
-      <c r="A21" s="52">
+      <c r="A21" s="54">
         <v>6.0</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D21" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E21" s="52">
+      <c r="C21" s="35">
+        <v>38.45</v>
+      </c>
+      <c r="D21" s="35">
+        <v>280.6666667</v>
+      </c>
+      <c r="E21" s="54">
         <v>6.0</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="54">
         <v>186.1</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="54">
         <v>-61.4</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="55">
         <v>64.6</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="54">
         <v>8.3</v>
       </c>
       <c r="J21" s="13"/>
@@ -2420,7 +2491,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="54"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="17">
         <v>47.0</v>
@@ -2444,13 +2515,13 @@
         <v>44</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD21" s="17">
         <v>0.0</v>
@@ -2467,8 +2538,8 @@
       <c r="AJ21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="55" t="s">
-        <v>71</v>
+      <c r="AK21" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL21" s="25" t="s">
         <v>49</v>
@@ -2479,31 +2550,31 @@
       <c r="AQ21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>7.0</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D22" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E22" s="52">
+      <c r="C22" s="35">
+        <v>38.45</v>
+      </c>
+      <c r="D22" s="35">
+        <v>280.7166667</v>
+      </c>
+      <c r="E22" s="54">
         <v>10.0</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="54">
         <v>153.20000000000005</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="54">
         <v>-70.3</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="55">
         <v>129.9</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="54">
         <v>4.2</v>
       </c>
       <c r="J22" s="13"/>
@@ -2512,7 +2583,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="54"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="17">
         <v>47.0</v>
@@ -2536,13 +2607,13 @@
         <v>44</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD22" s="17">
         <v>0.0</v>
@@ -2559,11 +2630,11 @@
       <c r="AJ22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK22" s="55" t="s">
-        <v>71</v>
+      <c r="AK22" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL22" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM22" s="17"/>
       <c r="AN22" s="17"/>
@@ -2571,31 +2642,31 @@
       <c r="AQ22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="52">
+      <c r="A23" s="54">
         <v>8.0</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D23" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="C23" s="35">
+        <v>38.3916667</v>
+      </c>
+      <c r="D23" s="35">
+        <v>280.4166667</v>
+      </c>
+      <c r="E23" s="54">
         <v>6.0</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="54">
         <v>179.5</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="54">
         <v>-55.0</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="55">
         <v>21.6</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="54">
         <v>14.8</v>
       </c>
       <c r="J23" s="13"/>
@@ -2604,7 +2675,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="54"/>
+      <c r="P23" s="56"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17">
         <v>47.0</v>
@@ -2628,13 +2699,13 @@
         <v>44</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD23" s="17">
         <v>0.0</v>
@@ -2651,8 +2722,8 @@
       <c r="AJ23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK23" s="55" t="s">
-        <v>71</v>
+      <c r="AK23" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL23" s="25" t="s">
         <v>49</v>
@@ -2663,31 +2734,31 @@
       <c r="AQ23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>9.0</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D24" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E24" s="52">
+      <c r="C24" s="35">
+        <v>38.4166667</v>
+      </c>
+      <c r="D24" s="35">
+        <v>280.5</v>
+      </c>
+      <c r="E24" s="54">
         <v>4.0</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="54">
         <v>172.29999999999995</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="54">
         <v>-51.2</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="55">
         <v>80.8</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="54">
         <v>10.2</v>
       </c>
       <c r="J24" s="13"/>
@@ -2696,7 +2767,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="54"/>
+      <c r="P24" s="56"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17">
         <v>47.0</v>
@@ -2720,13 +2791,13 @@
         <v>44</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD24" s="17">
         <v>0.0</v>
@@ -2743,8 +2814,8 @@
       <c r="AJ24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK24" s="55" t="s">
-        <v>71</v>
+      <c r="AK24" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL24" s="25" t="s">
         <v>49</v>
@@ -2755,31 +2826,31 @@
       <c r="AQ24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="52">
+      <c r="A25" s="54">
         <v>10.0</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D25" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E25" s="52">
+      <c r="C25" s="35">
+        <v>38.475</v>
+      </c>
+      <c r="D25" s="35">
+        <v>280.7083333</v>
+      </c>
+      <c r="E25" s="54">
         <v>9.0</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="54">
         <v>169.0</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="54">
         <v>-22.1</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="55">
         <v>22.5</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="54">
         <v>11.9</v>
       </c>
       <c r="J25" s="13"/>
@@ -2788,7 +2859,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="54"/>
+      <c r="P25" s="56"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17">
         <v>47.0</v>
@@ -2812,13 +2883,13 @@
         <v>44</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD25" s="17">
         <v>0.0</v>
@@ -2835,11 +2906,11 @@
       <c r="AJ25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK25" s="55" t="s">
-        <v>71</v>
+      <c r="AK25" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL25" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM25" s="17"/>
       <c r="AN25" s="17"/>
@@ -2847,31 +2918,31 @@
       <c r="AQ25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="52">
+      <c r="A26" s="54">
         <v>11.0</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="26">
-        <v>38.4</v>
-      </c>
-      <c r="D26" s="26">
-        <v>280.6</v>
-      </c>
-      <c r="E26" s="52">
+      <c r="C26" s="35">
+        <v>38.4333333</v>
+      </c>
+      <c r="D26" s="35">
+        <v>280.7333333</v>
+      </c>
+      <c r="E26" s="54">
         <v>6.0</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="54">
         <v>133.2</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="54">
         <v>-59.4</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="55">
         <v>33.4</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="54">
         <v>10.5</v>
       </c>
       <c r="J26" s="13"/>
@@ -2880,7 +2951,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="54"/>
+      <c r="P26" s="56"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17">
         <v>47.0</v>
@@ -2904,13 +2975,13 @@
         <v>44</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD26" s="17">
         <v>0.0</v>
@@ -2927,11 +2998,11 @@
       <c r="AJ26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK26" s="55" t="s">
-        <v>71</v>
+      <c r="AK26" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="AL26" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
@@ -2939,22 +3010,22 @@
       <c r="AQ26" s="17"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
@@ -3076,9 +3147,9 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -3123,7 +3194,7 @@
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -3168,7 +3239,7 @@
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -3212,8 +3283,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -3257,8 +3327,7 @@
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -3302,8 +3371,7 @@
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -3347,8 +3415,7 @@
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -3392,8 +3459,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -3437,8 +3503,7 @@
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -3482,8 +3547,7 @@
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -3527,8 +3591,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
